--- a/public/doc_xls_export/report_absensi_fingerprint.xlsx
+++ b/public/doc_xls_export/report_absensi_fingerprint.xlsx
@@ -610,7 +610,7 @@
       </c>
       <c s="10" t="inlineStr">
         <is>
-          <t>as</t>
+          <t>2</t>
         </is>
       </c>
       <c s="10" t="inlineStr">
@@ -625,7 +625,7 @@
       </c>
       <c s="10" t="inlineStr">
         <is>
-          <t>2013/11/13 22:39:24</t>
+          <t>2013/11/14 09:11:05</t>
         </is>
       </c>
     </row>
@@ -910,6 +910,48 @@
       <c s="10" t="inlineStr">
         <is>
           <t>Dit_SPKP_Jan13.xls</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>NULL</t>
+        </is>
+      </c>
+    </row>
+    <row spans="1:8" s="2" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c s="10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>2013/11/14 09:12:28</t>
+        </is>
+      </c>
+      <c s="12" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c s="12" t="inlineStr">
+        <is>
+          <t>Agustus</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c s="10" t="inlineStr">
+        <is>
+          <t>ditSPKP_agus13.xls</t>
         </is>
       </c>
       <c s="10" t="inlineStr">
